--- a/A2_results_step1.xlsx
+++ b/A2_results_step1.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601c3f8e6edde6a/Documents/Ms_Sustainable_Energy/46755_Renewables_in_electricity_markets/REIM_Github/RenewablesInElectricityMarkets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D273B2-C9C9-4754-B0FC-4FAE3C667B03}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="p_DA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>x1</t>
   </si>
@@ -390,139 +379,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>1.5</v>
       </c>
-      <c r="D2">
-        <f>MAX(A2:A25)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>10.500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1">
       <c r="A16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>1.5</v>
       </c>

--- a/A2_results_step1.xlsx
+++ b/A2_results_step1.xlsx
@@ -397,12 +397,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -412,37 +412,37 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>10.500000000000002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -462,12 +462,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -477,37 +477,37 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.xlsx
+++ b/A2_results_step1.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -417,12 +417,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.0</v>
+        <v>10.500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -437,7 +437,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -447,7 +447,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -462,7 +462,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -472,7 +472,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -492,7 +492,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23" spans="1:1">

--- a/A2_results_step1.xlsx
+++ b/A2_results_step1.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -417,12 +417,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.0</v>
+        <v>10.500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -437,7 +437,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -447,7 +447,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -462,7 +462,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -472,7 +472,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
